--- a/medicine/Mort/Apostles/Apostles.xlsx
+++ b/medicine/Mort/Apostles/Apostles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Apostles (十三門徒, Shísān méntú) est un film hongkongais réalisé par Scud, sorti en 2022. Le film reprend des personnages des précédents film du même réalisateur, comme Utopians ou Thirty Years of Adonis.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un érudit, Antonio, se faisant surnommer « le parrain », recrute douze jeunes hommes pour venir suivre son enseignement dans son manoir isolé sur une île. L'annonce est rédigée de telle sorte qu'elle attire de jeunes hommes homosexuels. Le parrain a également recruté une équipe de tournage pour filmer l'expérience. Les discussions tournent autour de la mort et l'enseignement prend un tour sombre et macabre.
 </t>
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Apostles
 Titre original : 十三門徒 (Shísān méntú)
@@ -584,7 +600,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Adonis He : Hins / Yang Ke / lui-même
 Jackie Chow : Antonio, « le parrain »
@@ -631,9 +649,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film a été présenté au Festival international du film queer de Taïwan[1], Festival du film lesbien et gay de Hong Kong[2] et au festival Reeling de Chicago[3]
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film a été présenté au Festival international du film queer de Taïwan, Festival du film lesbien et gay de Hong Kong et au festival Reeling de Chicago
 </t>
         </is>
       </c>
